--- a/biology/Origine et évolution du vivant/Chondrichthyes_(classification_phylogénétique)/Chondrichthyes_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Chondrichthyes_(classification_phylogénétique)/Chondrichthyes_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chondrichthyes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chondrichthyes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Chondrichthyes (Chondrichthyens, ou Poissons cartilagineux), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chondrichthyes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chondrichthyes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">▲
 └─o Chondrichthyes
@@ -776,7 +790,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chondrichthyes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chondrichthyes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -795,6 +809,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -802,7 +818,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chondrichthyes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chondrichthyes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -822,11 +838,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Arbre phylogénétique
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Chondrichthyes -- Poisson cartilagineux -- Requin -- Raie
 Histoire évolutive des poissons cartilagineux
 Le vivant (classification phylogénétique)
